--- a/biology/Biochimie/Phosphatidylinositol-4,5-bisphosphate/Phosphatidylinositol-4,5-bisphosphate.xlsx
+++ b/biology/Biochimie/Phosphatidylinositol-4,5-bisphosphate/Phosphatidylinositol-4,5-bisphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le phosphatidylinositol-4,5-bisphosphate, abrégé PtdIns(4,5)P2 ou encore plus simplement PIP2, est l'une des sept classes de phosphoinositides des membranes cellulaires des eucaryotes, c'est-à-dire un dérivé phosphorylé de phosphatidylinositols. C'est un phospholipide, constituant mineur de la membrane cellulaire. Il est plus abondant dans la membrane plasmique, où il joue le rôle de substrat pour plusieurs protéines importantes de la signalisation cellulaire.
